--- a/data-raw/SusitnaEG weirs.xlsx
+++ b/data-raw/SusitnaEG weirs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF57BBF5-5039-4DEE-AB8D-6DC7096C61E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421FA950-4C95-492A-ADF5-8D6CB6C456CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-14055" windowWidth="21840" windowHeight="37920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual counts" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Summary of weir operations for Chinook salmon at Willow Creek.</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Added 10/23/2023 (10/3/2023 teams message from Nick)</t>
+  </si>
+  <si>
+    <t>Added 2/5/2025, 1/10/2025 teams message from Nick</t>
   </si>
 </sst>
 </file>
@@ -856,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72310F56-6D0C-4B66-9CDB-566FDD452153}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1229,17 @@
       </c>
       <c r="E46" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47">
+        <v>3440</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
